--- a/biology/Zoologie/Colias_canadensis/Colias_canadensis.xlsx
+++ b/biology/Zoologie/Colias_canadensis/Colias_canadensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias canadensis est un  insecte lépidoptère de la famille des Pieridae de la sous-famille des Coliadinae et du genre Colias.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias canadensis a été nommé par Ferris en 1982[1].
-D'abord décrite comme Colias hecla canadensis, une sous-espèce de Colias hecla, Colias canadensis a été élevé au rang d'espèce, mais certains pensent que c'est une sous-espèce de Colias tyche[2].
-Noms vernaculaires
-Colias canadensis se nomme Canada Sulphur en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias canadensis a été nommé par Ferris en 1982.
+D'abord décrite comme Colias hecla canadensis, une sous-espèce de Colias hecla, Colias canadensis a été élevé au rang d'espèce, mais certains pensent que c'est une sous-espèce de Colias tyche.
 </t>
         </is>
       </c>
@@ -542,15 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colias canadensis est un papillon de taille moyenne (son envergure varie de 32 à 47 mm), d'une couleur jaune orangé pâle à bordure étroite avec une très petite tache discoïdale au centre de l'aile antérieure et une tache orange plus ou moins marquée sur l'aile postérieure et sur le revers forme une tache blanche cernée de rouge
-Les femelles sont de couleur blanche ou orange pâle avec une large bordure foncée[2].
-Chenille
-Les stades immatures ne sont pas connus[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias canadensis se nomme Canada Sulphur en anglais.
 </t>
         </is>
       </c>
@@ -576,15 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Colias canadensis vole de mai à août, en une seule génération.
-Plantes hôtes
-Les plantes hôtes de sa chenille des légumineuses.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias canadensis est un papillon de taille moyenne (son envergure varie de 32 à 47 mm), d'une couleur jaune orangé pâle à bordure étroite avec une très petite tache discoïdale au centre de l'aile antérieure et une tache orange plus ou moins marquée sur l'aile postérieure et sur le revers forme une tache blanche cernée de rouge
+Les femelles sont de couleur blanche ou orange pâle avec une large bordure foncée.
 </t>
         </is>
       </c>
@@ -610,16 +625,199 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les stades immatures ne sont pas connus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colias_canadensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_canadensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias canadensis vole de mai à août, en une seule génération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colias_canadensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_canadensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille des légumineuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colias_canadensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_canadensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias canadensis est présent dans l'extrême nord-ouest de l'Amérique du Nord, en Alaska et au Canada dans le Yukon, l'Alberta et la Colombie-Britannique[1].
-Biotope
-Colias canadensis réside dans les forêts clairsemées de la taïga et la toundra.
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias canadensis est présent dans l'extrême nord-ouest de l'Amérique du Nord, en Alaska et au Canada dans le Yukon, l'Alberta et la Colombie-Britannique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colias_canadensis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_canadensis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias canadensis réside dans les forêts clairsemées de la taïga et la toundra.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Colias_canadensis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_canadensis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
